--- a/ACG Time Off.xlsx
+++ b/ACG Time Off.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{693B1DD3-9B1E-419E-9B12-5D7BD290E4BB}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Time Off Sheet" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191028" calcCompleted="0"/>
-  <x:extLst>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{575E132D-6FC2-44BE-8C63-B8D6BF02F7B1}"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -21,154 +20,98 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hours</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>__PowerAppsId__</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emma Schwartz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I need off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LZYnk8pAgw8</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="3">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="8">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </x:dxf>
-  </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ACGTimeOffTable" displayName="ACGTimeOffTable" ref="A1:E2" totalsRowShown="0">
-  <x:autoFilter ref="A1:E2"/>
-  <x:tableColumns count="5">
-    <x:tableColumn id="1" name="Name"/>
-    <x:tableColumn id="2" name="Day"/>
-    <x:tableColumn id="3" name="Hours"/>
-    <x:tableColumn id="4" name="Comments"/>
-    <x:tableColumn id="5" name="__PowerAppsId__"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3F87B83-ED35-48C4-9479-50B9EF0EB575}" name="ACGTimeOffTable" displayName="ACGTimeOffTable" ref="A1:D2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{CDC81E68-F344-4FE6-9E42-CFC1428AD988}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1036AC60-FB91-4988-AB1D-2FB176C85ACF}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{4B12AEEE-1008-444B-8EB2-F6D12C19BFB2}" name="Day" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6890F490-129E-4A02-AB41-8AEEF4668176}" name="Hours" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CD448017-ED7F-4159-8F92-518B79031E41}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,65 +410,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B1" sqref="B1 B1:B1 B1:B1048576"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
-    <x:col min="4" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="7">
-        <x:v>44240.5888888889</x:v>
-      </x:c>
-      <x:c r="C2" s="6" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>